--- a/Code/Results/Cases/Case_3_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01168777688452</v>
+        <v>1.040629009448294</v>
       </c>
       <c r="D2">
-        <v>1.03003036299332</v>
+        <v>1.048480843738454</v>
       </c>
       <c r="E2">
-        <v>1.016404599405182</v>
+        <v>1.038992835535349</v>
       </c>
       <c r="F2">
-        <v>1.030891442866767</v>
+        <v>1.057299806218056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047008560181665</v>
+        <v>1.041110595859552</v>
       </c>
       <c r="J2">
-        <v>1.033524441069777</v>
+        <v>1.045714584523252</v>
       </c>
       <c r="K2">
-        <v>1.04108659899487</v>
+        <v>1.051240569656995</v>
       </c>
       <c r="L2">
-        <v>1.027640026682263</v>
+        <v>1.041779289609118</v>
       </c>
       <c r="M2">
-        <v>1.041936553984461</v>
+        <v>1.060035154805782</v>
       </c>
       <c r="N2">
-        <v>1.01467422318151</v>
+        <v>1.019094698327555</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016550299824792</v>
+        <v>1.041645512437985</v>
       </c>
       <c r="D3">
-        <v>1.033920394593135</v>
+        <v>1.049319489136312</v>
       </c>
       <c r="E3">
-        <v>1.020331831725214</v>
+        <v>1.039859850047894</v>
       </c>
       <c r="F3">
-        <v>1.035701439919284</v>
+        <v>1.058371419347555</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048602055409101</v>
+        <v>1.041389751084952</v>
       </c>
       <c r="J3">
-        <v>1.03659973443039</v>
+        <v>1.046376449235785</v>
       </c>
       <c r="K3">
-        <v>1.044136901532306</v>
+        <v>1.051891200176147</v>
       </c>
       <c r="L3">
-        <v>1.030711008012806</v>
+        <v>1.042456281235588</v>
       </c>
       <c r="M3">
-        <v>1.045897017500761</v>
+        <v>1.060919921848696</v>
       </c>
       <c r="N3">
-        <v>1.015732636518536</v>
+        <v>1.019319259435051</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019629462937419</v>
+        <v>1.042303519128701</v>
       </c>
       <c r="D4">
-        <v>1.036386701800068</v>
+        <v>1.049862378553369</v>
       </c>
       <c r="E4">
-        <v>1.022824464335085</v>
+        <v>1.040421429472954</v>
       </c>
       <c r="F4">
-        <v>1.03875339849288</v>
+        <v>1.059065559865469</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049602283249973</v>
+        <v>1.04156932495967</v>
       </c>
       <c r="J4">
-        <v>1.03854403303162</v>
+        <v>1.046804386636084</v>
       </c>
       <c r="K4">
-        <v>1.046064943600454</v>
+        <v>1.052311784894145</v>
       </c>
       <c r="L4">
-        <v>1.032655006775527</v>
+        <v>1.04289426401213</v>
       </c>
       <c r="M4">
-        <v>1.048405563665752</v>
+        <v>1.061492560257697</v>
       </c>
       <c r="N4">
-        <v>1.016401337613395</v>
+        <v>1.019464337280788</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020908460212426</v>
+        <v>1.042580207416925</v>
       </c>
       <c r="D5">
-        <v>1.037411798490826</v>
+        <v>1.050090663497465</v>
       </c>
       <c r="E5">
-        <v>1.023861162575963</v>
+        <v>1.040657651446501</v>
       </c>
       <c r="F5">
-        <v>1.040022517098047</v>
+        <v>1.059357551955204</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050015591392603</v>
+        <v>1.041644564178026</v>
       </c>
       <c r="J5">
-        <v>1.039350857201872</v>
+        <v>1.046984211223203</v>
       </c>
       <c r="K5">
-        <v>1.046864906227621</v>
+        <v>1.052488498404961</v>
       </c>
       <c r="L5">
-        <v>1.033462286572591</v>
+        <v>1.043078373170071</v>
       </c>
       <c r="M5">
-        <v>1.049447650279419</v>
+        <v>1.061733329199949</v>
       </c>
       <c r="N5">
-        <v>1.016678710598188</v>
+        <v>1.019525273109648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021122318643894</v>
+        <v>1.042626668241948</v>
       </c>
       <c r="D6">
-        <v>1.037583240274254</v>
+        <v>1.050128996701901</v>
       </c>
       <c r="E6">
-        <v>1.024034583499063</v>
+        <v>1.040697321988487</v>
       </c>
       <c r="F6">
-        <v>1.040234806395012</v>
+        <v>1.059406588981489</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050084571855514</v>
+        <v>1.041657182291761</v>
       </c>
       <c r="J6">
-        <v>1.039485717547407</v>
+        <v>1.047014399839662</v>
       </c>
       <c r="K6">
-        <v>1.046998612700948</v>
+        <v>1.052518163483519</v>
       </c>
       <c r="L6">
-        <v>1.033597257125029</v>
+        <v>1.043109284788214</v>
       </c>
       <c r="M6">
-        <v>1.049621900619543</v>
+        <v>1.061773757210817</v>
       </c>
       <c r="N6">
-        <v>1.016725066287949</v>
+        <v>1.019535501276552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019646613016915</v>
+        <v>1.04230721600678</v>
       </c>
       <c r="D7">
-        <v>1.03640044477255</v>
+        <v>1.049865428695828</v>
       </c>
       <c r="E7">
-        <v>1.022838360235169</v>
+        <v>1.040424585357079</v>
       </c>
       <c r="F7">
-        <v>1.038770410534472</v>
+        <v>1.059069460789517</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04960783387516</v>
+        <v>1.04157033130678</v>
       </c>
       <c r="J7">
-        <v>1.038554854878101</v>
+        <v>1.046806789777141</v>
       </c>
       <c r="K7">
-        <v>1.046075673878492</v>
+        <v>1.05231414654352</v>
       </c>
       <c r="L7">
-        <v>1.032665832443057</v>
+        <v>1.042896724162317</v>
       </c>
       <c r="M7">
-        <v>1.048419536633723</v>
+        <v>1.061495777299999</v>
       </c>
       <c r="N7">
-        <v>1.016405058460518</v>
+        <v>1.019465151724355</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013345383269765</v>
+        <v>1.040972487124638</v>
       </c>
       <c r="D8">
-        <v>1.031355798648183</v>
+        <v>1.048764219837441</v>
       </c>
       <c r="E8">
-        <v>1.017742137204137</v>
+        <v>1.039285730074144</v>
       </c>
       <c r="F8">
-        <v>1.032529852325454</v>
+        <v>1.05766181031913</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047553606777754</v>
+        <v>1.041205156607286</v>
       </c>
       <c r="J8">
-        <v>1.03457342191199</v>
+        <v>1.045938333519858</v>
       </c>
       <c r="K8">
-        <v>1.042127147625966</v>
+        <v>1.05146053925109</v>
       </c>
       <c r="L8">
-        <v>1.02868702557748</v>
+        <v>1.042008097496459</v>
       </c>
       <c r="M8">
-        <v>1.043286502340316</v>
+        <v>1.06033413768848</v>
       </c>
       <c r="N8">
-        <v>1.015035340240702</v>
+        <v>1.019170636898053</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001697936521801</v>
+        <v>1.03862253741455</v>
       </c>
       <c r="D9">
-        <v>1.022057189682781</v>
+        <v>1.046825542831023</v>
       </c>
       <c r="E9">
-        <v>1.008370164296279</v>
+        <v>1.037283269711651</v>
       </c>
       <c r="F9">
-        <v>1.021044470615593</v>
+        <v>1.055187006447214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043687676030941</v>
+        <v>1.040553580514101</v>
       </c>
       <c r="J9">
-        <v>1.027190878421014</v>
+        <v>1.044405471535625</v>
       </c>
       <c r="K9">
-        <v>1.034802261085739</v>
+        <v>1.049953206039619</v>
       </c>
       <c r="L9">
-        <v>1.021328885572788</v>
+        <v>1.040441666973413</v>
       </c>
       <c r="M9">
-        <v>1.03380509974943</v>
+        <v>1.058288238395053</v>
       </c>
       <c r="N9">
-        <v>1.01249217114572</v>
+        <v>1.018649927954435</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9935237058606483</v>
+        <v>1.037057271515743</v>
       </c>
       <c r="D10">
-        <v>1.015552741806253</v>
+        <v>1.045534341719953</v>
       </c>
       <c r="E10">
-        <v>1.001828981851224</v>
+        <v>1.035951266359435</v>
       </c>
       <c r="F10">
-        <v>1.013020261225352</v>
+        <v>1.05354097246383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040930399616396</v>
+        <v>1.040113772980993</v>
       </c>
       <c r="J10">
-        <v>1.021996651387156</v>
+        <v>1.043381889655195</v>
       </c>
       <c r="K10">
-        <v>1.029646752079771</v>
+        <v>1.048946217541588</v>
       </c>
       <c r="L10">
-        <v>1.016165291801916</v>
+        <v>1.039397039062416</v>
       </c>
       <c r="M10">
-        <v>1.027158343966768</v>
+        <v>1.05692504802395</v>
       </c>
       <c r="N10">
-        <v>1.010700998571159</v>
+        <v>1.018301636494413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9898764389101161</v>
+        <v>1.036379820490628</v>
       </c>
       <c r="D11">
-        <v>1.012656461103163</v>
+        <v>1.044975542744974</v>
       </c>
       <c r="E11">
-        <v>0.9989197810085386</v>
+        <v>1.035375208083623</v>
       </c>
       <c r="F11">
-        <v>1.009449140838098</v>
+        <v>1.052829137395936</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039690233913055</v>
+        <v>1.039922048370014</v>
       </c>
       <c r="J11">
-        <v>1.019676519730269</v>
+        <v>1.042938275760044</v>
       </c>
       <c r="K11">
-        <v>1.027343577998815</v>
+        <v>1.048509688309415</v>
       </c>
       <c r="L11">
-        <v>1.013862097469658</v>
+        <v>1.038944629393029</v>
       </c>
       <c r="M11">
-        <v>1.024195033440286</v>
+        <v>1.05633495359602</v>
       </c>
       <c r="N11">
-        <v>1.009900590283966</v>
+        <v>1.018150552202295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9885045001817032</v>
+        <v>1.036128233077782</v>
       </c>
       <c r="D12">
-        <v>1.011567982390709</v>
+        <v>1.044768025589854</v>
       </c>
       <c r="E12">
-        <v>0.9978269611274586</v>
+        <v>1.035161341456223</v>
       </c>
       <c r="F12">
-        <v>1.008107283495473</v>
+        <v>1.052564867064516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039222304547317</v>
+        <v>1.039850640465739</v>
       </c>
       <c r="J12">
-        <v>1.018803466040838</v>
+        <v>1.04277343865214</v>
       </c>
       <c r="K12">
-        <v>1.026476863945406</v>
+        <v>1.048347467723978</v>
       </c>
       <c r="L12">
-        <v>1.012995911885375</v>
+        <v>1.038776572919779</v>
       </c>
       <c r="M12">
-        <v>1.023080791751405</v>
+        <v>1.056115793095341</v>
       </c>
       <c r="N12">
-        <v>1.009599359041336</v>
+        <v>1.018094392157339</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9887995799364062</v>
+        <v>1.036182197255828</v>
       </c>
       <c r="D13">
-        <v>1.01180204964775</v>
+        <v>1.044812536647203</v>
       </c>
       <c r="E13">
-        <v>0.9980619386986641</v>
+        <v>1.035207211717593</v>
       </c>
       <c r="F13">
-        <v>1.008395827371953</v>
+        <v>1.052621547745666</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039323011816658</v>
+        <v>1.039865966426846</v>
       </c>
       <c r="J13">
-        <v>1.018991258182364</v>
+        <v>1.042808799442325</v>
       </c>
       <c r="K13">
-        <v>1.026663294161202</v>
+        <v>1.048382267940947</v>
       </c>
       <c r="L13">
-        <v>1.013182204266418</v>
+        <v>1.038812622111051</v>
       </c>
       <c r="M13">
-        <v>1.023320425292923</v>
+        <v>1.056162802545468</v>
       </c>
       <c r="N13">
-        <v>1.009664155031892</v>
+        <v>1.018106440511832</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9897633905201485</v>
+        <v>1.03635902321574</v>
       </c>
       <c r="D14">
-        <v>1.012566749713867</v>
+        <v>1.044958388376891</v>
       </c>
       <c r="E14">
-        <v>0.9988297013782804</v>
+        <v>1.035357527613328</v>
       </c>
       <c r="F14">
-        <v>1.009338541609839</v>
+        <v>1.052807289932626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039651705154389</v>
+        <v>1.039916149703134</v>
       </c>
       <c r="J14">
-        <v>1.019604585960201</v>
+        <v>1.042924651477902</v>
       </c>
       <c r="K14">
-        <v>1.027272167358851</v>
+        <v>1.048496280616326</v>
       </c>
       <c r="L14">
-        <v>1.013790719499697</v>
+        <v>1.038930738021896</v>
       </c>
       <c r="M14">
-        <v>1.0241032104422</v>
+        <v>1.056316837170723</v>
       </c>
       <c r="N14">
-        <v>1.009875771644819</v>
+        <v>1.018145910822645</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9903549184126834</v>
+        <v>1.036467977896408</v>
       </c>
       <c r="D15">
-        <v>1.01303620641042</v>
+        <v>1.045048258511728</v>
       </c>
       <c r="E15">
-        <v>0.9993011060263004</v>
+        <v>1.035450156405922</v>
       </c>
       <c r="F15">
-        <v>1.009917313163238</v>
+        <v>1.052921749978274</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039853249498422</v>
+        <v>1.039947043728309</v>
       </c>
       <c r="J15">
-        <v>1.019980967937332</v>
+        <v>1.042996023912992</v>
       </c>
       <c r="K15">
-        <v>1.027645810509971</v>
+        <v>1.048566517769695</v>
       </c>
       <c r="L15">
-        <v>1.014164213530237</v>
+        <v>1.039003511639328</v>
       </c>
       <c r="M15">
-        <v>1.024583693676615</v>
+        <v>1.056411746556281</v>
       </c>
       <c r="N15">
-        <v>1.01000562956955</v>
+        <v>1.018170224408997</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.99376340957408</v>
+        <v>1.03710223844515</v>
       </c>
       <c r="D16">
-        <v>1.015743219952627</v>
+        <v>1.045571433735736</v>
       </c>
       <c r="E16">
-        <v>1.002020381156503</v>
+        <v>1.035989512425872</v>
       </c>
       <c r="F16">
-        <v>1.013255156723458</v>
+        <v>1.053588233789408</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041011703479953</v>
+        <v>1.040126470055957</v>
       </c>
       <c r="J16">
-        <v>1.022149085959189</v>
+        <v>1.043411322532507</v>
       </c>
       <c r="K16">
-        <v>1.029798066279466</v>
+        <v>1.048975178122019</v>
       </c>
       <c r="L16">
-        <v>1.016316681769244</v>
+        <v>1.039427062380483</v>
       </c>
       <c r="M16">
-        <v>1.027353152316865</v>
+        <v>1.056964214390027</v>
       </c>
       <c r="N16">
-        <v>1.010753579800875</v>
+        <v>1.018311657753889</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9958719374248068</v>
+        <v>1.037500178900662</v>
       </c>
       <c r="D17">
-        <v>1.01741942552161</v>
+        <v>1.045899688408211</v>
       </c>
       <c r="E17">
-        <v>1.003705083904685</v>
+        <v>1.036328026245062</v>
       </c>
       <c r="F17">
-        <v>1.015322442972435</v>
+        <v>1.054006545000757</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041725765194556</v>
+        <v>1.040238675559473</v>
       </c>
       <c r="J17">
-        <v>1.023489680518314</v>
+        <v>1.043671722572737</v>
       </c>
       <c r="K17">
-        <v>1.031128770447912</v>
+        <v>1.049231387309028</v>
       </c>
       <c r="L17">
-        <v>1.01764845996031</v>
+        <v>1.039692723783298</v>
       </c>
       <c r="M17">
-        <v>1.029067044135129</v>
+        <v>1.057310810268782</v>
       </c>
       <c r="N17">
-        <v>1.011215971281503</v>
+        <v>1.018400302544759</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9970914784984019</v>
+        <v>1.037732321651992</v>
       </c>
       <c r="D18">
-        <v>1.018389475730788</v>
+        <v>1.046091182671083</v>
       </c>
       <c r="E18">
-        <v>1.004680377826765</v>
+        <v>1.036525543889943</v>
       </c>
       <c r="F18">
-        <v>1.016518999400429</v>
+        <v>1.05425062648307</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04213782663096</v>
+        <v>1.040303999128258</v>
       </c>
       <c r="J18">
-        <v>1.024264818383577</v>
+        <v>1.04382357125961</v>
       </c>
       <c r="K18">
-        <v>1.031898157116111</v>
+        <v>1.049380781853826</v>
       </c>
       <c r="L18">
-        <v>1.018418807968205</v>
+        <v>1.039847671941291</v>
       </c>
       <c r="M18">
-        <v>1.030058557917888</v>
+        <v>1.057512990735089</v>
       </c>
       <c r="N18">
-        <v>1.011483295707064</v>
+        <v>1.018451981312707</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.997505587580651</v>
+        <v>1.037811481556018</v>
       </c>
       <c r="D19">
-        <v>1.018718959686811</v>
+        <v>1.046156482142514</v>
       </c>
       <c r="E19">
-        <v>1.005011698240412</v>
+        <v>1.036592903859511</v>
       </c>
       <c r="F19">
-        <v>1.01692544959183</v>
+        <v>1.05433386681193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042277585630219</v>
+        <v>1.040326251737482</v>
       </c>
       <c r="J19">
-        <v>1.024527982671368</v>
+        <v>1.043875341238544</v>
       </c>
       <c r="K19">
-        <v>1.03215936305291</v>
+        <v>1.049431713389082</v>
       </c>
       <c r="L19">
-        <v>1.018680398118037</v>
+        <v>1.039900503948056</v>
       </c>
       <c r="M19">
-        <v>1.030395274025317</v>
+        <v>1.057581931912824</v>
       </c>
       <c r="N19">
-        <v>1.011574048308776</v>
+        <v>1.018469597979772</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9956467874787274</v>
+        <v>1.037457480467793</v>
       </c>
       <c r="D20">
-        <v>1.01724038077975</v>
+        <v>1.045864466797927</v>
       </c>
       <c r="E20">
-        <v>1.003525097698631</v>
+        <v>1.036291699850213</v>
       </c>
       <c r="F20">
-        <v>1.015101606286533</v>
+        <v>1.053961655099585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041649614539615</v>
+        <v>1.040226649795472</v>
       </c>
       <c r="J20">
-        <v>1.023346555720578</v>
+        <v>1.043643788066589</v>
       </c>
       <c r="K20">
-        <v>1.030986704882132</v>
+        <v>1.049203903443557</v>
       </c>
       <c r="L20">
-        <v>1.017506244432531</v>
+        <v>1.039664221616111</v>
       </c>
       <c r="M20">
-        <v>1.028884009977443</v>
+        <v>1.057273622054519</v>
       </c>
       <c r="N20">
-        <v>1.01116660866281</v>
+        <v>1.018390794510008</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9894800549553621</v>
+        <v>1.036306951050504</v>
       </c>
       <c r="D21">
-        <v>1.012341920108255</v>
+        <v>1.044915437411966</v>
       </c>
       <c r="E21">
-        <v>0.9986039571890097</v>
+        <v>1.035313260367397</v>
       </c>
       <c r="F21">
-        <v>1.009061367790705</v>
+        <v>1.052752589705413</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039555116792997</v>
+        <v>1.039901377300827</v>
       </c>
       <c r="J21">
-        <v>1.019424291806909</v>
+        <v>1.042890537570976</v>
       </c>
       <c r="K21">
-        <v>1.027093183739436</v>
+        <v>1.048462708769868</v>
       </c>
       <c r="L21">
-        <v>1.013611826385542</v>
+        <v>1.038895956140402</v>
       </c>
       <c r="M21">
-        <v>1.02387307955498</v>
+        <v>1.05627147706853</v>
       </c>
       <c r="N21">
-        <v>1.009813565790231</v>
+        <v>1.018134288919186</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9855028311171592</v>
+        <v>1.035583845648112</v>
       </c>
       <c r="D22">
-        <v>1.009188377371979</v>
+        <v>1.044319009494487</v>
       </c>
       <c r="E22">
-        <v>0.9954388094779963</v>
+        <v>1.034698696424714</v>
       </c>
       <c r="F22">
-        <v>1.005174139696711</v>
+        <v>1.051993194615445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038195941364599</v>
+        <v>1.039695749928029</v>
       </c>
       <c r="J22">
-        <v>1.016892775446917</v>
+        <v>1.042416597016979</v>
       </c>
       <c r="K22">
-        <v>1.024579982157978</v>
+        <v>1.047996261213216</v>
       </c>
       <c r="L22">
-        <v>1.011101169224704</v>
+        <v>1.038412851546746</v>
       </c>
       <c r="M22">
-        <v>1.020643788034463</v>
+        <v>1.055641544252407</v>
       </c>
       <c r="N22">
-        <v>1.008940043353643</v>
+        <v>1.017972778815897</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9876210584575338</v>
+        <v>1.035967151117709</v>
       </c>
       <c r="D23">
-        <v>1.010867355389103</v>
+        <v>1.044635161927372</v>
       </c>
       <c r="E23">
-        <v>0.9971236845532216</v>
+        <v>1.035024429414901</v>
       </c>
       <c r="F23">
-        <v>1.007243624827227</v>
+        <v>1.052395689079686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038920590147827</v>
+        <v>1.039804862566248</v>
       </c>
       <c r="J23">
-        <v>1.018241190437021</v>
+        <v>1.042667874173071</v>
       </c>
       <c r="K23">
-        <v>1.025918660802385</v>
+        <v>1.048243574419198</v>
       </c>
       <c r="L23">
-        <v>1.012438199741335</v>
+        <v>1.038668960491662</v>
       </c>
       <c r="M23">
-        <v>1.022363417825019</v>
+        <v>1.055975468681132</v>
       </c>
       <c r="N23">
-        <v>1.009405345478697</v>
+        <v>1.018058420565235</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9957485548904914</v>
+        <v>1.037476773956346</v>
       </c>
       <c r="D24">
-        <v>1.017321306989495</v>
+        <v>1.045880381838332</v>
       </c>
       <c r="E24">
-        <v>1.003606448427935</v>
+        <v>1.036308113973495</v>
       </c>
       <c r="F24">
-        <v>1.015201421421152</v>
+        <v>1.053981938642847</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041684037435456</v>
+        <v>1.040232084103712</v>
       </c>
       <c r="J24">
-        <v>1.023411248652544</v>
+        <v>1.043656410585649</v>
       </c>
       <c r="K24">
-        <v>1.031050919138964</v>
+        <v>1.049216322367435</v>
       </c>
       <c r="L24">
-        <v>1.01757052541686</v>
+        <v>1.039677100542209</v>
       </c>
       <c r="M24">
-        <v>1.028966740429858</v>
+        <v>1.057290425755367</v>
       </c>
       <c r="N24">
-        <v>1.011188920848224</v>
+        <v>1.018395090862721</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004777831620969</v>
+        <v>1.039229815778998</v>
       </c>
       <c r="D25">
-        <v>1.024512588503397</v>
+        <v>1.047326520188784</v>
       </c>
       <c r="E25">
-        <v>1.010842414565138</v>
+        <v>1.037800433618193</v>
       </c>
       <c r="F25">
-        <v>1.024075454300543</v>
+        <v>1.055826128962939</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044717710238293</v>
+        <v>1.040722985720171</v>
       </c>
       <c r="J25">
-        <v>1.029145465625421</v>
+        <v>1.044802050183601</v>
       </c>
       <c r="K25">
-        <v>1.036741932655541</v>
+        <v>1.050343260119931</v>
       </c>
       <c r="L25">
-        <v>1.023274715753082</v>
+        <v>1.040846689350289</v>
       </c>
       <c r="M25">
-        <v>1.036311182035256</v>
+        <v>1.058817023818546</v>
       </c>
       <c r="N25">
-        <v>1.01316584469734</v>
+        <v>1.018784747883813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040629009448294</v>
+        <v>1.011687776884519</v>
       </c>
       <c r="D2">
-        <v>1.048480843738454</v>
+        <v>1.030030362993318</v>
       </c>
       <c r="E2">
-        <v>1.038992835535349</v>
+        <v>1.01640459940518</v>
       </c>
       <c r="F2">
-        <v>1.057299806218056</v>
+        <v>1.030891442866765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041110595859552</v>
+        <v>1.047008560181664</v>
       </c>
       <c r="J2">
-        <v>1.045714584523252</v>
+        <v>1.033524441069776</v>
       </c>
       <c r="K2">
-        <v>1.051240569656995</v>
+        <v>1.041086598994869</v>
       </c>
       <c r="L2">
-        <v>1.041779289609118</v>
+        <v>1.027640026682262</v>
       </c>
       <c r="M2">
-        <v>1.060035154805782</v>
+        <v>1.041936553984459</v>
       </c>
       <c r="N2">
-        <v>1.019094698327555</v>
+        <v>1.01467422318151</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041645512437985</v>
+        <v>1.016550299824791</v>
       </c>
       <c r="D3">
-        <v>1.049319489136312</v>
+        <v>1.033920394593135</v>
       </c>
       <c r="E3">
-        <v>1.039859850047894</v>
+        <v>1.020331831725213</v>
       </c>
       <c r="F3">
-        <v>1.058371419347555</v>
+        <v>1.035701439919284</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041389751084952</v>
+        <v>1.048602055409101</v>
       </c>
       <c r="J3">
-        <v>1.046376449235785</v>
+        <v>1.036599734430389</v>
       </c>
       <c r="K3">
-        <v>1.051891200176147</v>
+        <v>1.044136901532306</v>
       </c>
       <c r="L3">
-        <v>1.042456281235588</v>
+        <v>1.030711008012806</v>
       </c>
       <c r="M3">
-        <v>1.060919921848696</v>
+        <v>1.04589701750076</v>
       </c>
       <c r="N3">
-        <v>1.019319259435051</v>
+        <v>1.015732636518536</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042303519128701</v>
+        <v>1.019629462937419</v>
       </c>
       <c r="D4">
-        <v>1.049862378553369</v>
+        <v>1.036386701800068</v>
       </c>
       <c r="E4">
-        <v>1.040421429472954</v>
+        <v>1.022824464335085</v>
       </c>
       <c r="F4">
-        <v>1.059065559865469</v>
+        <v>1.038753398492881</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04156932495967</v>
+        <v>1.049602283249973</v>
       </c>
       <c r="J4">
-        <v>1.046804386636084</v>
+        <v>1.03854403303162</v>
       </c>
       <c r="K4">
-        <v>1.052311784894145</v>
+        <v>1.046064943600454</v>
       </c>
       <c r="L4">
-        <v>1.04289426401213</v>
+        <v>1.032655006775528</v>
       </c>
       <c r="M4">
-        <v>1.061492560257697</v>
+        <v>1.048405563665752</v>
       </c>
       <c r="N4">
-        <v>1.019464337280788</v>
+        <v>1.016401337613396</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042580207416925</v>
+        <v>1.020908460212426</v>
       </c>
       <c r="D5">
-        <v>1.050090663497465</v>
+        <v>1.037411798490826</v>
       </c>
       <c r="E5">
-        <v>1.040657651446501</v>
+        <v>1.023861162575963</v>
       </c>
       <c r="F5">
-        <v>1.059357551955204</v>
+        <v>1.040022517098047</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041644564178026</v>
+        <v>1.050015591392603</v>
       </c>
       <c r="J5">
-        <v>1.046984211223203</v>
+        <v>1.039350857201872</v>
       </c>
       <c r="K5">
-        <v>1.052488498404961</v>
+        <v>1.046864906227621</v>
       </c>
       <c r="L5">
-        <v>1.043078373170071</v>
+        <v>1.03346228657259</v>
       </c>
       <c r="M5">
-        <v>1.061733329199949</v>
+        <v>1.049447650279419</v>
       </c>
       <c r="N5">
-        <v>1.019525273109648</v>
+        <v>1.016678710598188</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042626668241948</v>
+        <v>1.021122318643894</v>
       </c>
       <c r="D6">
-        <v>1.050128996701901</v>
+        <v>1.037583240274253</v>
       </c>
       <c r="E6">
-        <v>1.040697321988487</v>
+        <v>1.024034583499062</v>
       </c>
       <c r="F6">
-        <v>1.059406588981489</v>
+        <v>1.040234806395012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041657182291761</v>
+        <v>1.050084571855513</v>
       </c>
       <c r="J6">
-        <v>1.047014399839662</v>
+        <v>1.039485717547406</v>
       </c>
       <c r="K6">
-        <v>1.052518163483519</v>
+        <v>1.046998612700947</v>
       </c>
       <c r="L6">
-        <v>1.043109284788214</v>
+        <v>1.033597257125028</v>
       </c>
       <c r="M6">
-        <v>1.061773757210817</v>
+        <v>1.049621900619542</v>
       </c>
       <c r="N6">
-        <v>1.019535501276552</v>
+        <v>1.016725066287949</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04230721600678</v>
+        <v>1.019646613016913</v>
       </c>
       <c r="D7">
-        <v>1.049865428695828</v>
+        <v>1.036400444772549</v>
       </c>
       <c r="E7">
-        <v>1.040424585357079</v>
+        <v>1.022838360235167</v>
       </c>
       <c r="F7">
-        <v>1.059069460789517</v>
+        <v>1.03877041053447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04157033130678</v>
+        <v>1.04960783387516</v>
       </c>
       <c r="J7">
-        <v>1.046806789777141</v>
+        <v>1.0385548548781</v>
       </c>
       <c r="K7">
-        <v>1.05231414654352</v>
+        <v>1.04607567387849</v>
       </c>
       <c r="L7">
-        <v>1.042896724162317</v>
+        <v>1.032665832443055</v>
       </c>
       <c r="M7">
-        <v>1.061495777299999</v>
+        <v>1.048419536633722</v>
       </c>
       <c r="N7">
-        <v>1.019465151724355</v>
+        <v>1.016405058460517</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040972487124638</v>
+        <v>1.013345383269765</v>
       </c>
       <c r="D8">
-        <v>1.048764219837441</v>
+        <v>1.031355798648183</v>
       </c>
       <c r="E8">
-        <v>1.039285730074144</v>
+        <v>1.017742137204137</v>
       </c>
       <c r="F8">
-        <v>1.05766181031913</v>
+        <v>1.032529852325454</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041205156607286</v>
+        <v>1.047553606777754</v>
       </c>
       <c r="J8">
-        <v>1.045938333519858</v>
+        <v>1.03457342191199</v>
       </c>
       <c r="K8">
-        <v>1.05146053925109</v>
+        <v>1.042127147625966</v>
       </c>
       <c r="L8">
-        <v>1.042008097496459</v>
+        <v>1.02868702557748</v>
       </c>
       <c r="M8">
-        <v>1.06033413768848</v>
+        <v>1.043286502340316</v>
       </c>
       <c r="N8">
-        <v>1.019170636898053</v>
+        <v>1.015035340240702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.03862253741455</v>
+        <v>1.0016979365218</v>
       </c>
       <c r="D9">
-        <v>1.046825542831023</v>
+        <v>1.022057189682781</v>
       </c>
       <c r="E9">
-        <v>1.037283269711651</v>
+        <v>1.008370164296278</v>
       </c>
       <c r="F9">
-        <v>1.055187006447214</v>
+        <v>1.021044470615592</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040553580514101</v>
+        <v>1.043687676030941</v>
       </c>
       <c r="J9">
-        <v>1.044405471535625</v>
+        <v>1.027190878421014</v>
       </c>
       <c r="K9">
-        <v>1.049953206039619</v>
+        <v>1.034802261085739</v>
       </c>
       <c r="L9">
-        <v>1.040441666973413</v>
+        <v>1.021328885572788</v>
       </c>
       <c r="M9">
-        <v>1.058288238395053</v>
+        <v>1.033805099749429</v>
       </c>
       <c r="N9">
-        <v>1.018649927954435</v>
+        <v>1.01249217114572</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037057271515743</v>
+        <v>0.9935237058606474</v>
       </c>
       <c r="D10">
-        <v>1.045534341719953</v>
+        <v>1.015552741806253</v>
       </c>
       <c r="E10">
-        <v>1.035951266359435</v>
+        <v>1.001828981851224</v>
       </c>
       <c r="F10">
-        <v>1.05354097246383</v>
+        <v>1.013020261225351</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040113772980993</v>
+        <v>1.040930399616396</v>
       </c>
       <c r="J10">
-        <v>1.043381889655195</v>
+        <v>1.021996651387155</v>
       </c>
       <c r="K10">
-        <v>1.048946217541588</v>
+        <v>1.029646752079771</v>
       </c>
       <c r="L10">
-        <v>1.039397039062416</v>
+        <v>1.016165291801916</v>
       </c>
       <c r="M10">
-        <v>1.05692504802395</v>
+        <v>1.027158343966766</v>
       </c>
       <c r="N10">
-        <v>1.018301636494413</v>
+        <v>1.010700998571158</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036379820490628</v>
+        <v>0.9898764389101167</v>
       </c>
       <c r="D11">
-        <v>1.044975542744974</v>
+        <v>1.012656461103163</v>
       </c>
       <c r="E11">
-        <v>1.035375208083623</v>
+        <v>0.9989197810085392</v>
       </c>
       <c r="F11">
-        <v>1.052829137395936</v>
+        <v>1.009449140838099</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039922048370014</v>
+        <v>1.039690233913055</v>
       </c>
       <c r="J11">
-        <v>1.042938275760044</v>
+        <v>1.019676519730269</v>
       </c>
       <c r="K11">
-        <v>1.048509688309415</v>
+        <v>1.027343577998815</v>
       </c>
       <c r="L11">
-        <v>1.038944629393029</v>
+        <v>1.013862097469659</v>
       </c>
       <c r="M11">
-        <v>1.05633495359602</v>
+        <v>1.024195033440287</v>
       </c>
       <c r="N11">
-        <v>1.018150552202295</v>
+        <v>1.009900590283966</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036128233077782</v>
+        <v>0.9885045001817028</v>
       </c>
       <c r="D12">
-        <v>1.044768025589854</v>
+        <v>1.011567982390709</v>
       </c>
       <c r="E12">
-        <v>1.035161341456223</v>
+        <v>0.9978269611274585</v>
       </c>
       <c r="F12">
-        <v>1.052564867064516</v>
+        <v>1.008107283495472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039850640465739</v>
+        <v>1.039222304547317</v>
       </c>
       <c r="J12">
-        <v>1.04277343865214</v>
+        <v>1.018803466040838</v>
       </c>
       <c r="K12">
-        <v>1.048347467723978</v>
+        <v>1.026476863945406</v>
       </c>
       <c r="L12">
-        <v>1.038776572919779</v>
+        <v>1.012995911885375</v>
       </c>
       <c r="M12">
-        <v>1.056115793095341</v>
+        <v>1.023080791751404</v>
       </c>
       <c r="N12">
-        <v>1.018094392157339</v>
+        <v>1.009599359041336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036182197255828</v>
+        <v>0.9887995799364062</v>
       </c>
       <c r="D13">
-        <v>1.044812536647203</v>
+        <v>1.01180204964775</v>
       </c>
       <c r="E13">
-        <v>1.035207211717593</v>
+        <v>0.9980619386986642</v>
       </c>
       <c r="F13">
-        <v>1.052621547745666</v>
+        <v>1.008395827371953</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039865966426846</v>
+        <v>1.039323011816658</v>
       </c>
       <c r="J13">
-        <v>1.042808799442325</v>
+        <v>1.018991258182364</v>
       </c>
       <c r="K13">
-        <v>1.048382267940947</v>
+        <v>1.026663294161202</v>
       </c>
       <c r="L13">
-        <v>1.038812622111051</v>
+        <v>1.013182204266419</v>
       </c>
       <c r="M13">
-        <v>1.056162802545468</v>
+        <v>1.023320425292923</v>
       </c>
       <c r="N13">
-        <v>1.018106440511832</v>
+        <v>1.009664155031892</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03635902321574</v>
+        <v>0.9897633905201482</v>
       </c>
       <c r="D14">
-        <v>1.044958388376891</v>
+        <v>1.012566749713866</v>
       </c>
       <c r="E14">
-        <v>1.035357527613328</v>
+        <v>0.9988297013782802</v>
       </c>
       <c r="F14">
-        <v>1.052807289932626</v>
+        <v>1.009338541609839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039916149703134</v>
+        <v>1.039651705154389</v>
       </c>
       <c r="J14">
-        <v>1.042924651477902</v>
+        <v>1.0196045859602</v>
       </c>
       <c r="K14">
-        <v>1.048496280616326</v>
+        <v>1.027272167358851</v>
       </c>
       <c r="L14">
-        <v>1.038930738021896</v>
+        <v>1.013790719499697</v>
       </c>
       <c r="M14">
-        <v>1.056316837170723</v>
+        <v>1.024103210442199</v>
       </c>
       <c r="N14">
-        <v>1.018145910822645</v>
+        <v>1.009875771644819</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036467977896408</v>
+        <v>0.9903549184126827</v>
       </c>
       <c r="D15">
-        <v>1.045048258511728</v>
+        <v>1.013036206410419</v>
       </c>
       <c r="E15">
-        <v>1.035450156405922</v>
+        <v>0.9993011060263</v>
       </c>
       <c r="F15">
-        <v>1.052921749978274</v>
+        <v>1.009917313163237</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039947043728309</v>
+        <v>1.039853249498422</v>
       </c>
       <c r="J15">
-        <v>1.042996023912992</v>
+        <v>1.019980967937331</v>
       </c>
       <c r="K15">
-        <v>1.048566517769695</v>
+        <v>1.02764581050997</v>
       </c>
       <c r="L15">
-        <v>1.039003511639328</v>
+        <v>1.014164213530236</v>
       </c>
       <c r="M15">
-        <v>1.056411746556281</v>
+        <v>1.024583693676614</v>
       </c>
       <c r="N15">
-        <v>1.018170224408997</v>
+        <v>1.01000562956955</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03710223844515</v>
+        <v>0.993763409574079</v>
       </c>
       <c r="D16">
-        <v>1.045571433735736</v>
+        <v>1.015743219952625</v>
       </c>
       <c r="E16">
-        <v>1.035989512425872</v>
+        <v>1.002020381156502</v>
       </c>
       <c r="F16">
-        <v>1.053588233789408</v>
+        <v>1.013255156723456</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040126470055957</v>
+        <v>1.041011703479952</v>
       </c>
       <c r="J16">
-        <v>1.043411322532507</v>
+        <v>1.022149085959188</v>
       </c>
       <c r="K16">
-        <v>1.048975178122019</v>
+        <v>1.029798066279465</v>
       </c>
       <c r="L16">
-        <v>1.039427062380483</v>
+        <v>1.016316681769242</v>
       </c>
       <c r="M16">
-        <v>1.056964214390027</v>
+        <v>1.027353152316863</v>
       </c>
       <c r="N16">
-        <v>1.018311657753889</v>
+        <v>1.010753579800875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037500178900662</v>
+        <v>0.9958719374248091</v>
       </c>
       <c r="D17">
-        <v>1.045899688408211</v>
+        <v>1.017419425521611</v>
       </c>
       <c r="E17">
-        <v>1.036328026245062</v>
+        <v>1.003705083904686</v>
       </c>
       <c r="F17">
-        <v>1.054006545000757</v>
+        <v>1.015322442972437</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040238675559473</v>
+        <v>1.041725765194557</v>
       </c>
       <c r="J17">
-        <v>1.043671722572737</v>
+        <v>1.023489680518315</v>
       </c>
       <c r="K17">
-        <v>1.049231387309028</v>
+        <v>1.031128770447914</v>
       </c>
       <c r="L17">
-        <v>1.039692723783298</v>
+        <v>1.017648459960312</v>
       </c>
       <c r="M17">
-        <v>1.057310810268782</v>
+        <v>1.029067044135131</v>
       </c>
       <c r="N17">
-        <v>1.018400302544759</v>
+        <v>1.011215971281503</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037732321651992</v>
+        <v>0.9970914784984022</v>
       </c>
       <c r="D18">
-        <v>1.046091182671083</v>
+        <v>1.018389475730788</v>
       </c>
       <c r="E18">
-        <v>1.036525543889943</v>
+        <v>1.004680377826765</v>
       </c>
       <c r="F18">
-        <v>1.05425062648307</v>
+        <v>1.016518999400429</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040303999128258</v>
+        <v>1.04213782663096</v>
       </c>
       <c r="J18">
-        <v>1.04382357125961</v>
+        <v>1.024264818383578</v>
       </c>
       <c r="K18">
-        <v>1.049380781853826</v>
+        <v>1.031898157116112</v>
       </c>
       <c r="L18">
-        <v>1.039847671941291</v>
+        <v>1.018418807968205</v>
       </c>
       <c r="M18">
-        <v>1.057512990735089</v>
+        <v>1.030058557917888</v>
       </c>
       <c r="N18">
-        <v>1.018451981312707</v>
+        <v>1.011483295707064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037811481556018</v>
+        <v>0.9975055875806509</v>
       </c>
       <c r="D19">
-        <v>1.046156482142514</v>
+        <v>1.018718959686811</v>
       </c>
       <c r="E19">
-        <v>1.036592903859511</v>
+        <v>1.005011698240412</v>
       </c>
       <c r="F19">
-        <v>1.05433386681193</v>
+        <v>1.01692544959183</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040326251737482</v>
+        <v>1.042277585630219</v>
       </c>
       <c r="J19">
-        <v>1.043875341238544</v>
+        <v>1.024527982671368</v>
       </c>
       <c r="K19">
-        <v>1.049431713389082</v>
+        <v>1.032159363052909</v>
       </c>
       <c r="L19">
-        <v>1.039900503948056</v>
+        <v>1.018680398118037</v>
       </c>
       <c r="M19">
-        <v>1.057581931912824</v>
+        <v>1.030395274025317</v>
       </c>
       <c r="N19">
-        <v>1.018469597979772</v>
+        <v>1.011574048308776</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037457480467793</v>
+        <v>0.9956467874787275</v>
       </c>
       <c r="D20">
-        <v>1.045864466797927</v>
+        <v>1.01724038077975</v>
       </c>
       <c r="E20">
-        <v>1.036291699850213</v>
+        <v>1.003525097698631</v>
       </c>
       <c r="F20">
-        <v>1.053961655099585</v>
+        <v>1.015101606286533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040226649795472</v>
+        <v>1.041649614539615</v>
       </c>
       <c r="J20">
-        <v>1.043643788066589</v>
+        <v>1.023346555720578</v>
       </c>
       <c r="K20">
-        <v>1.049203903443557</v>
+        <v>1.030986704882132</v>
       </c>
       <c r="L20">
-        <v>1.039664221616111</v>
+        <v>1.017506244432531</v>
       </c>
       <c r="M20">
-        <v>1.057273622054519</v>
+        <v>1.028884009977443</v>
       </c>
       <c r="N20">
-        <v>1.018390794510008</v>
+        <v>1.01116660866281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036306951050504</v>
+        <v>0.9894800549553625</v>
       </c>
       <c r="D21">
-        <v>1.044915437411966</v>
+        <v>1.012341920108256</v>
       </c>
       <c r="E21">
-        <v>1.035313260367397</v>
+        <v>0.9986039571890102</v>
       </c>
       <c r="F21">
-        <v>1.052752589705413</v>
+        <v>1.009061367790706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039901377300827</v>
+        <v>1.039555116792997</v>
       </c>
       <c r="J21">
-        <v>1.042890537570976</v>
+        <v>1.019424291806909</v>
       </c>
       <c r="K21">
-        <v>1.048462708769868</v>
+        <v>1.027093183739437</v>
       </c>
       <c r="L21">
-        <v>1.038895956140402</v>
+        <v>1.013611826385543</v>
       </c>
       <c r="M21">
-        <v>1.05627147706853</v>
+        <v>1.023873079554981</v>
       </c>
       <c r="N21">
-        <v>1.018134288919186</v>
+        <v>1.009813565790231</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035583845648112</v>
+        <v>0.9855028311171585</v>
       </c>
       <c r="D22">
-        <v>1.044319009494487</v>
+        <v>1.009188377371979</v>
       </c>
       <c r="E22">
-        <v>1.034698696424714</v>
+        <v>0.9954388094779957</v>
       </c>
       <c r="F22">
-        <v>1.051993194615445</v>
+        <v>1.00517413969671</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039695749928029</v>
+        <v>1.038195941364598</v>
       </c>
       <c r="J22">
-        <v>1.042416597016979</v>
+        <v>1.016892775446917</v>
       </c>
       <c r="K22">
-        <v>1.047996261213216</v>
+        <v>1.024579982157978</v>
       </c>
       <c r="L22">
-        <v>1.038412851546746</v>
+        <v>1.011101169224703</v>
       </c>
       <c r="M22">
-        <v>1.055641544252407</v>
+        <v>1.020643788034462</v>
       </c>
       <c r="N22">
-        <v>1.017972778815897</v>
+        <v>1.008940043353643</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035967151117709</v>
+        <v>0.9876210584575343</v>
       </c>
       <c r="D23">
-        <v>1.044635161927372</v>
+        <v>1.010867355389103</v>
       </c>
       <c r="E23">
-        <v>1.035024429414901</v>
+        <v>0.997123684553222</v>
       </c>
       <c r="F23">
-        <v>1.052395689079686</v>
+        <v>1.007243624827227</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039804862566248</v>
+        <v>1.038920590147827</v>
       </c>
       <c r="J23">
-        <v>1.042667874173071</v>
+        <v>1.018241190437021</v>
       </c>
       <c r="K23">
-        <v>1.048243574419198</v>
+        <v>1.025918660802386</v>
       </c>
       <c r="L23">
-        <v>1.038668960491662</v>
+        <v>1.012438199741335</v>
       </c>
       <c r="M23">
-        <v>1.055975468681132</v>
+        <v>1.022363417825019</v>
       </c>
       <c r="N23">
-        <v>1.018058420565235</v>
+        <v>1.009405345478697</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037476773956346</v>
+        <v>0.9957485548904931</v>
       </c>
       <c r="D24">
-        <v>1.045880381838332</v>
+        <v>1.017321306989497</v>
       </c>
       <c r="E24">
-        <v>1.036308113973495</v>
+        <v>1.003606448427937</v>
       </c>
       <c r="F24">
-        <v>1.053981938642847</v>
+        <v>1.015201421421153</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040232084103712</v>
+        <v>1.041684037435457</v>
       </c>
       <c r="J24">
-        <v>1.043656410585649</v>
+        <v>1.023411248652546</v>
       </c>
       <c r="K24">
-        <v>1.049216322367435</v>
+        <v>1.031050919138965</v>
       </c>
       <c r="L24">
-        <v>1.039677100542209</v>
+        <v>1.017570525416861</v>
       </c>
       <c r="M24">
-        <v>1.057290425755367</v>
+        <v>1.02896674042986</v>
       </c>
       <c r="N24">
-        <v>1.018395090862721</v>
+        <v>1.011188920848225</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039229815778998</v>
+        <v>1.004777831620969</v>
       </c>
       <c r="D25">
-        <v>1.047326520188784</v>
+        <v>1.024512588503397</v>
       </c>
       <c r="E25">
-        <v>1.037800433618193</v>
+        <v>1.010842414565139</v>
       </c>
       <c r="F25">
-        <v>1.055826128962939</v>
+        <v>1.024075454300543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040722985720171</v>
+        <v>1.044717710238293</v>
       </c>
       <c r="J25">
-        <v>1.044802050183601</v>
+        <v>1.029145465625421</v>
       </c>
       <c r="K25">
-        <v>1.050343260119931</v>
+        <v>1.036741932655541</v>
       </c>
       <c r="L25">
-        <v>1.040846689350289</v>
+        <v>1.023274715753082</v>
       </c>
       <c r="M25">
-        <v>1.058817023818546</v>
+        <v>1.036311182035256</v>
       </c>
       <c r="N25">
-        <v>1.018784747883813</v>
+        <v>1.01316584469734</v>
       </c>
     </row>
   </sheetData>
